--- a/biology/Zoologie/Decuella_cubaorientalis/Decuella_cubaorientalis.xlsx
+++ b/biology/Zoologie/Decuella_cubaorientalis/Decuella_cubaorientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decuella cubaorientalis, unique représentant du genre Decuella, est une espèce d'opilions laniatores de la famille des Biantidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans la province de Santiago de Cuba à Contramaestre dans la grotte Cueva El Rabón et dans la province de Guantánamo à Baracoa dans la grotte Cueva de los Golondrinos.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans la province de Santiago de Cuba à Contramaestre dans la grotte Cueva El Rabón et dans la province de Guantánamo à Baracoa dans la grotte Cueva de los Golondrinos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,30 mm et la femelle paratype 2,40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,30 mm et la femelle paratype 2,40 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la province orientale à Cuba.
-Ce genre est nommé en l'honneur de Vasile Decu[2].
+Ce genre est nommé en l'honneur de Vasile Decu.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Avram, 1977 : « Recherches sur les Opilionides de Cuba. III. Genres et espèces nouveaux de Caribbiantinae (Biantidae, Gonyleptomorphi). » Résultats des expéditions biospéologiques cubano-roumaines à Cuba, vol. 2, p. 123–136.</t>
         </is>
